--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3345569.673600814</v>
+        <v>3343682.092084411</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.7029429582352</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>163.1602881938902</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>281.5496867510633</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>15.14483238681376</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.9109866599763</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>48.26252137233877</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132222</v>
       </c>
       <c r="W10" t="n">
-        <v>55.90301252244932</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174105</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25.99793221749272</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404422</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>183.1796758467008</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>97.58716462297951</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.18937547121174</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>93.87916681139905</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.37729220500678</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985772</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>211.4593910168953</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2530,10 +2530,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151929</v>
+        <v>235.5975646709546</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>101.004168848341</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750037</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965567</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801248</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437456</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348209</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897944</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571529</v>
+        <v>1.599126004631155</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523609</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550466</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298326</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700207</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952713</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080343</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604805</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.82471917434745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463131</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463136</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1550.100961840373</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1550.100961840373</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2532.340719105202</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2313.706052077265</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2313.706052077265</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2313.706052077265</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>2313.706052077265</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X2" t="n">
-        <v>1940.240293816185</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="Y2" t="n">
-        <v>1550.100961840373</v>
+        <v>1272.344242153657</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>443.7353612255621</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>443.7353612255621</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>847.8148076117928</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>478.8522906713811</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2681.851280526491</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2350.788393182921</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1998.019737912806</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.553979651726</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1234.414647675915</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4659,28 +4659,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2648.399069430002</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2317.336182086431</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1964.567526816317</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>671.6612947898188</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>443.6717438918015</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155906</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110095</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555221</v>
+        <v>380.9740019042123</v>
       </c>
       <c r="L12" t="n">
-        <v>891.440640161986</v>
+        <v>627.7391298106763</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441948</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033466</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>909.3712637033466</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>681.3817128053292</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>460.5891336617991</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110095</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555221</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>891.440640161986</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.10087974468</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>835.4163915387937</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018332</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5504,22 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>181.9314425141228</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>592.8217113586354</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115524</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395486</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839213</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839213</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839213</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.921157035281</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488389</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="V19" t="n">
-        <v>644.1080300429521</v>
+        <v>709.4512536188993</v>
       </c>
       <c r="W19" t="n">
-        <v>354.6908600059917</v>
+        <v>420.0340835819386</v>
       </c>
       <c r="X19" t="n">
-        <v>126.7013091079745</v>
+        <v>192.0445326839213</v>
       </c>
       <c r="Y19" t="n">
-        <v>126.7013091079745</v>
+        <v>192.0445326839213</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944156</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944156</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.7133084820798</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>117.8002148996867</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
-        <v>109.599783924196</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471198</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473456</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473456</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687014</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>796.2722772255031</v>
+        <v>933.2366688293935</v>
       </c>
       <c r="W22" t="n">
-        <v>506.8551071885425</v>
+        <v>643.8194987924329</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8655562905253</v>
+        <v>415.8299478944156</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905254</v>
+        <v>415.8299478944156</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>539.5926371926334</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473456</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011504</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,7 +6227,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>498.9056400965593</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.2170914602857</v>
+        <v>199.2415044384081</v>
       </c>
       <c r="C28" t="n">
-        <v>97.2170914602857</v>
+        <v>199.2415044384081</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011504</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952636</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="W28" t="n">
-        <v>325.206642358303</v>
+        <v>420.0340835819381</v>
       </c>
       <c r="X28" t="n">
-        <v>97.2170914602857</v>
+        <v>420.0340835819381</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.2170914602857</v>
+        <v>199.2415044384081</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6449,25 +6449,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>637.6995017749915</v>
+        <v>604.5641438163777</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749915</v>
+        <v>491.3888261698416</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440259</v>
+        <v>397.0330520388767</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430032</v>
+        <v>397.0330520388767</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264632</v>
+        <v>305.9039698223371</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276543</v>
+        <v>193.4895134235285</v>
       </c>
       <c r="H31" t="n">
-        <v>152.990817556968</v>
+        <v>98.83237025284259</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864668</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933494</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667498</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962037</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021644</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056071</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899267</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.65268009619</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167066</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661995</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737479</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818883</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652414</v>
+        <v>730.4517433652467</v>
       </c>
       <c r="Y31" t="n">
-        <v>637.6995017749915</v>
+        <v>730.4517433652467</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6835,34 +6835,34 @@
         <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,16 +6889,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010317</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7175,10 +7175,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515098</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,25 +7421,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7570,16 +7570,16 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
         <v>559.3441472229671</v>
@@ -7789,28 +7789,28 @@
         <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083205</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814762</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>94.13752431970605</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119848</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814756</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>50.62661940943602</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>43.65987261462566</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>230.7151863772038</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.100663089359642</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>87.16935584025379</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>32.9224866577558</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>285.1031356539328</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>32.92248665775577</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,10 +10826,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>9.900512684485363</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>223.674264993448</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8340479644446</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>82.39383318338577</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>103.0576765518764</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>188.9358337136115</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>150.6426047107255</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>52.55479583517012</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>125.0437558179245</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>40.67825230693273</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338434</v>
+        <v>50.63978772762271</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>47.61130416987139</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533806</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700711</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>53.61686283108374</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>71.55667754919065</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>718110.1834587392</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>746537.7231523495</v>
+        <v>746537.7231523496</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
         <v>697885.504384641</v>
@@ -26320,40 +26320,40 @@
         <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541053</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="F2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="G2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="H2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="J2" t="n">
         <v>664749.401554105</v>
       </c>
-      <c r="I2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.4015541048</v>
-      </c>
       <c r="K2" t="n">
-        <v>691597.633486959</v>
+        <v>691597.6334869596</v>
       </c>
       <c r="L2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="M2" t="n">
+        <v>697885.5043846406</v>
+      </c>
+      <c r="N2" t="n">
         <v>697885.5043846407</v>
       </c>
-      <c r="M2" t="n">
-        <v>697885.5043846407</v>
-      </c>
-      <c r="N2" t="n">
-        <v>697885.5043846404</v>
-      </c>
       <c r="O2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="P2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284533</v>
+        <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086719</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284537</v>
+        <v>44162.6053028457</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143922</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143913</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563551</v>
+        <v>33210.29213563561</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275965</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275954</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022276</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-131716.4111445356</v>
+        <v>-131716.4111445354</v>
       </c>
       <c r="C6" t="n">
         <v>458251.4680700089</v>
@@ -26528,40 +26528,40 @@
         <v>458251.468070009</v>
       </c>
       <c r="E6" t="n">
-        <v>32556.36950705359</v>
+        <v>32458.91038108048</v>
       </c>
       <c r="F6" t="n">
-        <v>557716.4059839491</v>
+        <v>557618.9468579771</v>
       </c>
       <c r="G6" t="n">
-        <v>557716.4059839492</v>
+        <v>557618.9468579768</v>
       </c>
       <c r="H6" t="n">
-        <v>557716.4059839493</v>
+        <v>557618.9468579771</v>
       </c>
       <c r="I6" t="n">
-        <v>557716.4059839493</v>
+        <v>557618.946857977</v>
       </c>
       <c r="J6" t="n">
-        <v>381293.1867913561</v>
+        <v>381195.7276653842</v>
       </c>
       <c r="K6" t="n">
-        <v>517596.5275182554</v>
+        <v>517578.0337803211</v>
       </c>
       <c r="L6" t="n">
-        <v>552363.0349009886</v>
+        <v>552363.034900989</v>
       </c>
       <c r="M6" t="n">
-        <v>427904.9264680187</v>
+        <v>427904.9264680184</v>
       </c>
       <c r="N6" t="n">
-        <v>562705.9417018553</v>
+        <v>562705.9417018557</v>
       </c>
       <c r="O6" t="n">
-        <v>562705.941701856</v>
+        <v>562705.9417018559</v>
       </c>
       <c r="P6" t="n">
-        <v>518543.3363990104</v>
+        <v>518543.3363990102</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964068</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,25 +26738,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26765,16 +26765,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108399</v>
+        <v>12.92863350108358</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855671</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>73.03089870524542</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>11.25542461508132</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27588,22 +27588,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>4.973311585527654</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689005</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>236.0793351214755</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874018</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.3619051110313</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>202.9616461359505</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106058</v>
       </c>
       <c r="W10" t="n">
-        <v>230.6199858141417</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28147,10 +28147,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.508117851338566e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,13 +28576,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-2.839431673017436e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30235,13 +30235,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-2.839431673017436e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32166,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32403,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330542</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>244.7129629076453</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330542</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>138.6396521945101</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>85.57005156953228</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556561</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>254.358368045384</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556562</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>237.744794428193</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>240.0159015892805</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412223</v>
+        <v>67.71102679412262</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584673</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084852</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075292</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341603</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491596</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403575</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043146</v>
+        <v>94.42895660043185</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>618.2977090519457</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>366.1170600557687</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>259.1582176405097</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>350.198519175048</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38108,16 +38108,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>506.0379672345562</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
